--- a/battle/wars/deep_3-1/deep_3-1.xlsx
+++ b/battle/wars/deep_3-1/deep_3-1.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -612,8 +612,12 @@
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -676,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
